--- a/daily_logs.xlsx
+++ b/daily_logs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johntomczak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johntomczak\Desktop\market_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all_markets" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="fidelity" sheetId="6" r:id="rId8"/>
     <sheet name="VIX_SPX" sheetId="7" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,24 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>DATE</t>
   </si>
   <si>
     <t>DJIA</t>
-  </si>
-  <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>USDJPY</t>
-  </si>
-  <si>
-    <t>GBPUSD</t>
-  </si>
-  <si>
-    <t>USDCAD</t>
   </si>
   <si>
     <t>NASDAQ</t>
@@ -80,12 +71,6 @@
   </si>
   <si>
     <t>HANG SENG</t>
-  </si>
-  <si>
-    <t>USDCNY</t>
-  </si>
-  <si>
-    <t>CHFUSD</t>
   </si>
   <si>
     <t>WTI (CLA)</t>
@@ -167,9 +152,6 @@
   </si>
   <si>
     <t>PCEp Core Y</t>
-  </si>
-  <si>
-    <t>DXY</t>
   </si>
   <si>
     <t>Cons Conf</t>
@@ -4705,11 +4687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="858418896"/>
-        <c:axId val="858416176"/>
+        <c:axId val="1370237696"/>
+        <c:axId val="1370238784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="858418896"/>
+        <c:axId val="1370237696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,7 +4733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858416176"/>
+        <c:crossAx val="1370238784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4759,7 +4741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="858416176"/>
+        <c:axId val="1370238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4812,7 +4794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858418896"/>
+        <c:crossAx val="1370237696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5452,6 +5434,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="all_markets"/>
+      <sheetName val="stocks"/>
+      <sheetName val="currencies"/>
+      <sheetName val="commodities"/>
+      <sheetName val="fixed_income"/>
+      <sheetName val="FedWatch"/>
+      <sheetName val="data"/>
+      <sheetName val="fidelity"/>
+      <sheetName val="VIX_SPX"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>42611</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42612</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42613</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42614</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42615</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5761,27 +5798,27 @@
       </c>
       <c r="J1" s="1" t="str">
         <f>currencies!B1</f>
-        <v>EURUSD</v>
+        <v>S&amp;P 500</v>
       </c>
       <c r="K1" s="1" t="str">
         <f>currencies!C1</f>
-        <v>USDJPY</v>
+        <v>DJIA</v>
       </c>
       <c r="L1" s="1" t="str">
         <f>currencies!D1</f>
-        <v>GBPUSD</v>
+        <v>NASDAQ</v>
       </c>
       <c r="M1" s="1" t="str">
         <f>currencies!E1</f>
-        <v>USDCAD</v>
+        <v>VIX</v>
       </c>
       <c r="N1" s="1" t="str">
         <f>currencies!F1</f>
-        <v>CHFUSD</v>
+        <v>FTSE 100</v>
       </c>
       <c r="O1" s="1" t="str">
         <f>currencies!G1</f>
-        <v>USDCNY</v>
+        <v>DAX</v>
       </c>
       <c r="P1" s="1" t="str">
         <f>commodities!B1</f>
@@ -5886,27 +5923,27 @@
       </c>
       <c r="J2" s="8">
         <f>currencies!B2</f>
-        <v>1.1189</v>
+        <v>2180.38</v>
       </c>
       <c r="K2" s="8">
         <f>currencies!C2</f>
-        <v>101.92</v>
+        <v>18502.990000000002</v>
       </c>
       <c r="L2" s="8">
         <f>currencies!D2</f>
-        <v>1.3106</v>
+        <v>5232.33</v>
       </c>
       <c r="M2">
         <f>currencies!E2</f>
-        <v>1.3010999999999999</v>
+        <v>12.94</v>
       </c>
       <c r="N2">
         <f>currencies!F2</f>
-        <v>1.0222</v>
+        <v>6838.05</v>
       </c>
       <c r="O2">
         <f>currencies!G2</f>
-        <v>6.6829999999999998</v>
+        <v>10544.44</v>
       </c>
       <c r="P2">
         <f>commodities!B2</f>
@@ -6011,43 +6048,43 @@
       </c>
       <c r="J3" s="8">
         <f>currencies!B3</f>
-        <v>0</v>
+        <v>2176.12</v>
       </c>
       <c r="K3" s="8">
         <f>currencies!C3</f>
-        <v>0</v>
+        <v>18454.3</v>
       </c>
       <c r="L3" s="8">
         <f>currencies!D3</f>
-        <v>0</v>
+        <v>5222.99</v>
       </c>
       <c r="M3">
         <f>currencies!E3</f>
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="N3">
         <f>currencies!F3</f>
-        <v>0</v>
+        <v>6820.79</v>
       </c>
       <c r="O3">
         <f>currencies!G3</f>
-        <v>0</v>
+        <v>10657.64</v>
       </c>
       <c r="P3">
         <f>commodities!B3</f>
-        <v>0</v>
+        <v>46.35</v>
       </c>
       <c r="Q3">
         <f>commodities!C3</f>
-        <v>0</v>
+        <v>48.73</v>
       </c>
       <c r="R3">
         <f>commodities!D3</f>
-        <v>0</v>
+        <v>2.3799999999999955</v>
       </c>
       <c r="S3">
         <f>commodities!E3</f>
-        <v>0</v>
+        <v>1316.5</v>
       </c>
       <c r="T3" s="12">
         <f>fixed_income!B3</f>
@@ -6197,10 +6234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6210,28 +6247,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6240,28 +6277,28 @@
       <c r="A2" s="3">
         <v>42611</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2180.38</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>18502.990000000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>5232.33</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>12.94</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>6838.05</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>10544.44</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>16737.490000000002</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>22821.34</v>
       </c>
     </row>
@@ -6269,28 +6306,28 @@
       <c r="A3" s="3">
         <v>42612</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2176.12</v>
       </c>
       <c r="C3" s="4">
         <v>18454.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>5222.99</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>13.12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>6820.79</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>10657.64</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>16725.36</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>23016.11</v>
       </c>
     </row>
@@ -6298,28 +6335,28 @@
       <c r="A4" s="3">
         <v>42613</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2170.9499999999998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>18400.88</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>5213.22</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>13.42</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>6781.51</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>10592.69</v>
       </c>
       <c r="H4" s="4">
         <v>16890.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>23008.47</v>
       </c>
     </row>
@@ -6327,14 +6364,175 @@
       <c r="A5" s="3">
         <v>42614</v>
       </c>
+      <c r="B5" s="4">
+        <v>2170.86</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18419.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5227.2060000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13.48</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6745.97</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10534.31</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16926.84</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23165.34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42615</v>
       </c>
+      <c r="B6" s="4">
+        <v>2179.98</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18491.96</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5249.8990000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6894.6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10683.82</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16925.68</v>
+      </c>
+      <c r="I6" s="4">
+        <v>23266.7</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2186.48</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18538.12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5275.9080000000004</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12.02</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6826.05</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10687.14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>17081.98</v>
+      </c>
+      <c r="I7" s="4">
+        <v>23787.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2186.16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18526.14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5283.9260000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6846.58</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10752.98</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17012.98</v>
+      </c>
+      <c r="I8" s="4">
+        <v>23741.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42621</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2181.3000000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18479.91</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5259.482</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12.51</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6858.7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10675.29</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16958.77</v>
+      </c>
+      <c r="I9" s="4">
+        <v>23919.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42622</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2127.81</v>
+      </c>
+      <c r="C10" s="4">
+        <v>18085.45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5125.9059999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6776.95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10573.44</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16965.759999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>24099.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6343,89 +6541,302 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f>stocks!A2</f>
         <v>42611</v>
       </c>
-      <c r="B2">
-        <v>1.1189</v>
-      </c>
-      <c r="C2">
-        <v>101.92</v>
-      </c>
-      <c r="D2">
-        <v>1.3106</v>
-      </c>
-      <c r="E2">
-        <v>1.3010999999999999</v>
-      </c>
-      <c r="F2">
-        <v>1.0222</v>
-      </c>
-      <c r="G2">
-        <v>6.6829999999999998</v>
-      </c>
-      <c r="H2">
-        <v>95.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>2180.38</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18502.990000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5232.33</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12.94</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6838.05</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10544.44</v>
+      </c>
+      <c r="H2" s="4">
+        <v>16737.490000000002</v>
+      </c>
+      <c r="I2" s="4">
+        <v>22821.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>stocks!A3</f>
         <v>42612</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>2176.12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18454.3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5222.99</v>
+      </c>
+      <c r="E3" s="4">
+        <v>13.12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6820.79</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10657.64</v>
+      </c>
+      <c r="H3" s="4">
+        <v>16725.36</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23016.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>stocks!A4</f>
         <v>42613</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>2170.9499999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18400.88</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5213.22</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13.42</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6781.51</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10592.69</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16890.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>23008.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>stocks!A5</f>
         <v>42614</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2170.86</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18419.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5227.2060000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13.48</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6745.97</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10534.31</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16926.84</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23165.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>stocks!A6</f>
         <v>42615</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2179.98</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18491.96</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5249.8990000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6894.6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10683.82</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16925.68</v>
+      </c>
+      <c r="I6" s="4">
+        <v>23266.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2186.48</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18538.12</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5275.9080000000004</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12.02</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6826.05</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10687.14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>17081.98</v>
+      </c>
+      <c r="I7" s="4">
+        <v>23787.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2186.16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18526.14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5283.9260000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6846.58</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10752.98</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17012.98</v>
+      </c>
+      <c r="I8" s="4">
+        <v>23741.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42621</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2181.3000000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18479.91</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5259.482</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12.51</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6858.7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10675.29</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16958.77</v>
+      </c>
+      <c r="I9" s="4">
+        <v>23919.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42622</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2127.81</v>
+      </c>
+      <c r="C10" s="4">
+        <v>18085.45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5125.9059999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6776.95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10573.44</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16965.759999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>24099.7</v>
       </c>
     </row>
   </sheetData>
@@ -6435,10 +6846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6451,24 +6862,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f>stocks!A2</f>
+        <f>[1]stocks!A2</f>
         <v>42611</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>46.98</v>
       </c>
       <c r="C2">
@@ -6484,26 +6895,150 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>stocks!A3</f>
+        <f>[1]stocks!A3</f>
         <v>42612</v>
+      </c>
+      <c r="B3" s="4">
+        <v>46.35</v>
+      </c>
+      <c r="C3">
+        <v>48.73</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1316.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>stocks!A4</f>
+        <f>[1]stocks!A4</f>
         <v>42613</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="C4">
+        <v>46.89</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.1899999999999977</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1311.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>stocks!A5</f>
+        <f>[1]stocks!A5</f>
         <v>42614</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43.16</v>
+      </c>
+      <c r="C5">
+        <v>45.45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.2900000000000063</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1317.1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>stocks!A6</f>
+        <f>[1]stocks!A6</f>
         <v>42615</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44.44</v>
+      </c>
+      <c r="C6">
+        <v>46.83</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.3900000000000006</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1326.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44.83</v>
+      </c>
+      <c r="C7">
+        <v>47.26</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="C8">
+        <v>47.98</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.4799999999999969</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1349.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42621</v>
+      </c>
+      <c r="B9" s="4">
+        <v>47.62</v>
+      </c>
+      <c r="C9">
+        <v>49.99</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.3700000000000045</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1341.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42622</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45.71</v>
+      </c>
+      <c r="C10">
+        <v>47.87</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.1599999999999966</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1331.8</v>
       </c>
     </row>
   </sheetData>
@@ -6513,58 +7048,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f>stocks!A2</f>
+        <f>[1]stocks!A2</f>
         <v>42611</v>
       </c>
       <c r="B2" s="4">
@@ -6603,92 +7138,308 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>stocks!A3</f>
+        <f>[1]stocks!A3</f>
         <v>42612</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.23</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.33</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>0.47</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.61</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>0.92</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>1.18</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>1.44</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>1.57</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>1.91</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>2.23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>stocks!A4</f>
+        <f>[1]stocks!A4</f>
         <v>42613</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.47</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.61</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.92</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>1.19</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>1.45</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>1.58</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>1.9</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>2.23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>stocks!A5</f>
         <v>42614</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>stocks!A6</f>
         <v>42615</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42621</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42622</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.39</v>
       </c>
     </row>
   </sheetData>
@@ -6709,7 +7460,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2">
         <v>42611</v>
@@ -6723,7 +7474,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" s="16">
         <v>0.79</v>
@@ -6734,7 +7485,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" s="16">
         <v>0.21</v>
@@ -6745,7 +7496,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <v>42611</v>
@@ -6756,7 +7507,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" s="9">
         <v>0.74099999999999999</v>
@@ -6767,7 +7518,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9">
         <v>0.246</v>
@@ -6778,7 +7529,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9">
         <v>1.2999999999999999E-2</v>
@@ -6789,7 +7540,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
         <v>42611</v>
@@ -6800,7 +7551,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9">
         <v>0.441</v>
@@ -6811,7 +7562,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9">
         <v>0.44</v>
@@ -6822,7 +7573,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9">
         <v>0.113</v>
@@ -6833,7 +7584,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9">
         <v>6.0000000000000001E-3</v>
@@ -6844,7 +7595,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>42611</v>
@@ -6855,7 +7606,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9">
         <v>0.41399999999999998</v>
@@ -6866,7 +7617,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9">
         <v>0.44</v>
@@ -6877,7 +7628,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9">
         <v>0.13300000000000001</v>
@@ -6888,7 +7639,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9">
         <v>1.2E-2</v>
@@ -6899,7 +7650,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9">
         <v>0</v>
@@ -6910,7 +7661,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
         <v>42611</v>
@@ -6921,7 +7672,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9">
         <v>0.378</v>
@@ -6932,7 +7683,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B25" s="9">
         <v>0.438</v>
@@ -6943,7 +7694,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9">
         <v>0.16</v>
@@ -6954,7 +7705,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9">
         <v>2.3E-2</v>
@@ -6965,7 +7716,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="9">
         <v>1E-3</v>
@@ -6976,7 +7727,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>42611</v>
@@ -6987,7 +7738,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B31" s="9">
         <v>0.35299999999999998</v>
@@ -6998,7 +7749,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9">
         <v>0.434</v>
@@ -7009,7 +7760,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B33" s="9">
         <v>0.17799999999999999</v>
@@ -7020,7 +7771,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9">
         <v>3.2000000000000001E-2</v>
@@ -7031,7 +7782,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9">
         <v>3.0000000000000001E-3</v>
@@ -7045,7 +7796,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2">
         <v>42611</v>
@@ -7056,7 +7807,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B38" s="9">
         <v>0.28799999999999998</v>
@@ -7067,7 +7818,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B39" s="9">
         <v>0.41899999999999998</v>
@@ -7078,7 +7829,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B40" s="9">
         <v>0.22500000000000001</v>
@@ -7089,7 +7840,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B41" s="9">
         <v>5.8999999999999997E-2</v>
@@ -7100,7 +7851,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B42" s="9">
         <v>8.0000000000000002E-3</v>
@@ -7111,7 +7862,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B43" s="9">
         <v>1E-3</v>
@@ -7122,7 +7873,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>42611</v>
@@ -7133,7 +7884,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9">
         <v>0.27400000000000002</v>
@@ -7144,7 +7895,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9">
         <v>0.41299999999999998</v>
@@ -7155,7 +7906,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9">
         <v>0.23499999999999999</v>
@@ -7166,7 +7917,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9">
         <v>6.7000000000000004E-2</v>
@@ -7177,7 +7928,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B50" s="9">
         <v>1.0999999999999999E-2</v>
@@ -7188,7 +7939,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B51" s="9">
         <v>1E-3</v>
@@ -7206,13 +7957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>42611</v>
       </c>
@@ -7223,41 +7974,41 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>3.0000000000000001E-3</v>
@@ -7265,7 +8016,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>101.1</v>
@@ -7273,7 +8024,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5">
         <v>-1E-3</v>
@@ -7281,7 +8032,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9">
         <v>5.0999999999999997E-2</v>
@@ -7289,7 +8040,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" s="9">
         <v>6.0000000000000001E-3</v>
@@ -7297,7 +8048,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>177000</v>
@@ -7305,7 +8056,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>111.3</v>
@@ -7313,7 +8064,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>51.5</v>
@@ -7321,7 +8072,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>2300000</v>
@@ -7329,7 +8080,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>-700000</v>
@@ -7337,7 +8088,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>1500000</v>
@@ -7363,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -7457,25 +8208,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/daily_logs.xlsx
+++ b/daily_logs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johntomczak\Desktop\market_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JohnTomczak/Documents/work/finance/numbers/market_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="all_markets" sheetId="8" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="data" sheetId="2" r:id="rId7"/>
     <sheet name="fidelity" sheetId="6" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -365,66 +365,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="all_markets"/>
-      <sheetName val="stocks"/>
-      <sheetName val="currencies"/>
-      <sheetName val="commodities"/>
-      <sheetName val="fixed_income"/>
-      <sheetName val="FedWatch"/>
-      <sheetName val="data"/>
-      <sheetName val="fidelity"/>
-      <sheetName val="VIX_SPX"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>S&amp;P 500</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>42611</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>42612</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>42613</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>42614</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>42615</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,11 +632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showFormulas="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1866,7 +1806,7 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2170,10 +2110,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2256,12 +2196,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,7 +2223,6 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f>[1]stocks!A2</f>
         <v>42611</v>
       </c>
       <c r="B2" s="3">
@@ -2302,7 +2241,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>[1]stocks!A3</f>
         <v>42612</v>
       </c>
       <c r="B3" s="3">
@@ -2321,7 +2259,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>[1]stocks!A4</f>
         <v>42613</v>
       </c>
       <c r="B4" s="3">
@@ -2340,7 +2277,6 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>[1]stocks!A5</f>
         <v>42614</v>
       </c>
       <c r="B5" s="3">
@@ -2359,7 +2295,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f>[1]stocks!A6</f>
         <v>42615</v>
       </c>
       <c r="B6" s="3">
@@ -2458,10 +2393,10 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2506,7 +2441,6 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f>[1]stocks!A2</f>
         <v>42611</v>
       </c>
       <c r="B2" s="3">
@@ -2545,7 +2479,6 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>[1]stocks!A3</f>
         <v>42612</v>
       </c>
       <c r="B3" s="3">
@@ -2584,7 +2517,6 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>[1]stocks!A4</f>
         <v>42613</v>
       </c>
       <c r="B4" s="3">
@@ -2863,7 +2795,7 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -3330,7 +3262,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3343,7 +3275,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3356,10 +3288,10 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -3391,7 +3323,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3404,7 +3336,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3417,7 +3349,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3430,7 +3362,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3443,7 +3375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3456,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3469,7 +3401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
@@ -3501,7 +3433,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3446,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3527,7 +3459,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3540,7 +3472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3553,7 +3485,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3566,7 +3498,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3588,14 +3520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,11 +3843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3934,7 +3866,6 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f>stocks!A2</f>
         <v>42611</v>
       </c>
       <c r="B2" s="3">
@@ -3949,7 +3880,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>stocks!A3</f>
         <v>42612</v>
       </c>
       <c r="B3" s="3">
@@ -3964,7 +3894,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>stocks!A4</f>
         <v>42613</v>
       </c>
       <c r="B4" s="3">

--- a/daily_logs.xlsx
+++ b/daily_logs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JohnTomczak/Documents/work/finance/numbers/market_logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johntomczak\Desktop\market_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="12435" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="all_markets" sheetId="8" r:id="rId1"/>
@@ -21,11 +21,8 @@
     <sheet name="data" sheetId="2" r:id="rId7"/>
     <sheet name="fidelity" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -636,7 +633,7 @@
       <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1806,7 +1803,7 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2113,7 +2110,7 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2199,9 +2196,9 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,7 +2393,7 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2795,9 +2792,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2913,7 +2910,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2955,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2997,7 +2994,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3152,7 +3149,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3191,7 +3188,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3236,7 +3233,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3249,7 +3246,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3262,7 +3259,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3288,10 +3285,10 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3336,7 +3333,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3362,7 +3359,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3375,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3388,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3401,7 +3398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
@@ -3433,7 +3430,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3472,7 +3469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3524,10 +3521,10 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3844,10 +3841,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
